--- a/第八小组计划实施表.xlsx
+++ b/第八小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,6 +297,58 @@
   </si>
   <si>
     <t>完成考勤签到模块的用例规约描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入后点击界面跳转较多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面设计与需求有所冲突，需要修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步讨论确立使用的具体框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成考勤组织模块的删除，更新，查询跟查看考勤组织的用例规约描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级用户的后台管理主页界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.13 第四周 周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级用户的后台管理个人信息管理模块界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考二维码签到的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考普通用户跟系统管理专员的考勤报表的查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考超级用户的后台考勤考勤报表的查看</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +518,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -498,6 +550,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -514,12 +575,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -859,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -874,20 +929,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -976,10 +1031,10 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -988,12 +1043,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -1087,19 +1142,19 @@
       <c r="A20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
@@ -1202,12 +1257,12 @@
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
@@ -1302,12 +1357,12 @@
       <c r="D42" s="3"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
@@ -1327,30 +1382,40 @@
       <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
+      <c r="C46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="3"/>
+      <c r="C47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="D48" s="8"/>
     </row>
     <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1360,28 +1425,38 @@
       <c r="B49" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="3"/>
+      <c r="C49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="3"/>
+      <c r="C51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
@@ -1389,8 +1464,97 @@
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
     </row>
+    <row r="54" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+    </row>
+    <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A54:D54"/>
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A24:D24"/>
